--- a/chapters/ch11/support/ch11-flash.xlsx
+++ b/chapters/ch11/support/ch11-flash.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="1400" windowWidth="25120" windowHeight="14040" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12620" yWindow="460" windowWidth="51200" windowHeight="28280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,6 +131,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8DA0CB"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -166,29 +171,29 @@
             <a:r>
               <a:rPr lang="en-US">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="8DA0CB"/>
                 </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
               </a:rPr>
               <a:t>% Flash Usage Across</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="8DA0CB"/>
                 </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
               </a:rPr>
               <a:t> The Web</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="8DA0CB"/>
               </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -206,19 +211,25 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400"/>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="8DA0CB"/>
+              </a:solidFill>
+            </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="8DA0CB"/>
               </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="8DA0CB"/>
+                </a:solidFill>
+              </a:ln>
               <a:effectLst/>
               <a:scene3d>
                 <a:camera prst="orthographicFront"/>
@@ -258,6 +269,19 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -366,7 +390,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -378,11 +402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2129743656"/>
-        <c:axId val="2144516888"/>
+        <c:axId val="2074540088"/>
+        <c:axId val="2074543816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2129743656"/>
+        <c:axId val="2074540088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,15 +432,17 @@
               <a:defRPr>
                 <a:solidFill>
                   <a:schemeClr val="bg1">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="65000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144516888"/>
+        <c:crossAx val="2074543816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -424,7 +450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144516888"/>
+        <c:axId val="2074543816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,24 +477,34 @@
               <a:defRPr>
                 <a:solidFill>
                   <a:schemeClr val="bg1">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="65000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129743656"/>
+        <c:crossAx val="2074540088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -575,12 +611,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="8DA0CB"/>
               </a:solidFill>
               <a:effectLst/>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
             </a:rPr>
             <a:t>Source: Historical</a:t>
           </a:r>
@@ -591,12 +626,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="8DA0CB"/>
               </a:solidFill>
               <a:effectLst/>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
             </a:rPr>
             <a:t> quarterly website client-side technology usage: http://bit.ly/14ww81w</a:t>
           </a:r>
@@ -606,12 +640,11 @@
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
+              <a:srgbClr val="8DA0CB"/>
             </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
@@ -1054,7 +1087,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
